--- a/mission_L1.xlsx
+++ b/mission_L1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26621"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-31340" yWindow="4700" windowWidth="25040" windowHeight="9140"/>
+    <workbookView xWindow="7060" yWindow="9460" windowWidth="25040" windowHeight="9140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>reviewed</t>
   </si>
   <si>
-    <t>The mission shall charactarize the circumstellar environment of a nearby star</t>
-  </si>
-  <si>
     <t>The mission shall demonstrate high contrast imaging via an internal coronagraph in space</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>Mission-03</t>
+  </si>
+  <si>
+    <t>The mission shall characterize the circumstellar environment of a nearby star</t>
   </si>
 </sst>
 </file>
@@ -464,7 +464,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -494,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -511,44 +511,44 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9">

--- a/mission_L1.xlsx
+++ b/mission_L1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26621"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7060" yWindow="9460" windowWidth="25040" windowHeight="9140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
